--- a/biology/Zoologie/Andricus/Andricus.xlsx
+++ b/biology/Zoologie/Andricus/Andricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andricus est un genre d'insectes appartenant à l'ordre des hyménoptères, à la famille des cynipidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Zoonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'agronome allemand Theodor Hartig met en évidence deux types de générations chez ce cynipidé, la génération agame et la génération bisexuée. Parmi cette dernière, il identifie à tort des mâles et nomme le genre Andricus (du grec « aux caractères mâles »)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agronome allemand Theodor Hartig met en évidence deux types de générations chez ce cynipidé, la génération agame et la génération bisexuée. Parmi cette dernière, il identifie à tort des mâles et nomme le genre Andricus (du grec « aux caractères mâles »).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Insectes cécidogènes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une quarantaine d'espèces cécidogènes de ce genre sont responsables de la formation de galles curieuses sur divers chênes. Leurs galles se reconnaissent par un aspect propre à chacune : certaines évoquent une bille de bois (Andricus kollari, A. quercustozae), d'autres un petit artichaut aux folioles imbriquées (Andricus foecundatrix) ou encore un champignon rouge luisant (Andricus dentimitratus), la galle d’Andricus aries porte une ou deux cornes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une quarantaine d'espèces cécidogènes de ce genre sont responsables de la formation de galles curieuses sur divers chênes. Leurs galles se reconnaissent par un aspect propre à chacune : certaines évoquent une bille de bois (Andricus kollari, A. quercustozae), d'autres un petit artichaut aux folioles imbriquées (Andricus foecundatrix) ou encore un champignon rouge luisant (Andricus dentimitratus), la galle d’Andricus aries porte une ou deux cornes.
 			Galle d’Andricus kollari
 			Galle d’Andricus quercustozae
 			Galle d’Andricus foecundatrix
@@ -578,9 +594,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 juin 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 juin 2012) :
 Andricus aestivalis
 Andricus aries
 Andricus askewi
@@ -639,7 +657,7 @@
 Andricus truncicolus
 Andricus vindobonensis
 Andricus viscosus
-Selon ITIS      (22 juin 2012)[4] :
+Selon ITIS      (22 juin 2012) :
 Andricus caputmedusae (Hartig, 1843)
 Andricus curvator Hartig, 1840
 Andricus cylindratum (Kinsey, 1937)
@@ -659,7 +677,7 @@
 Andricus serricornis Kinsey, 1922
 Andricus sieboldi (Hartig, 1843)
 Andricus solitarius (Boyer de Fonscolombe, 1832)
-Selon Catalogue of Life                                   (22 juin 2012)[5] :
+Selon Catalogue of Life                                   (22 juin 2012) :
 Andricus caputmedusae
 Andricus curvator
 Andricus cylindratum
@@ -679,7 +697,7 @@
 Andricus serricornis
 Andricus sieboldi
 Andricus solitarius
-Selon Paleobiology Database                   (22 juin 2012)[6] :
+Selon Paleobiology Database                   (22 juin 2012) :
 Andricus myricae</t>
         </is>
       </c>
